--- a/data/pca/factorExposure/factorExposure_2015-11-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01525117883979177</v>
+        <v>0.01281659841566426</v>
       </c>
       <c r="C2">
-        <v>-0.02902203757373722</v>
+        <v>0.03552487343914909</v>
       </c>
       <c r="D2">
-        <v>-0.09493781673822135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1276563638750882</v>
+      </c>
+      <c r="E2">
+        <v>-0.06658993452371259</v>
+      </c>
+      <c r="F2">
+        <v>-0.02538510752618653</v>
+      </c>
+      <c r="G2">
+        <v>0.07739475786262627</v>
+      </c>
+      <c r="H2">
+        <v>-0.008117169347316577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01631645632518409</v>
+        <v>0.009558007132142903</v>
       </c>
       <c r="C3">
-        <v>-0.05982089764199985</v>
+        <v>0.04465627822778879</v>
       </c>
       <c r="D3">
-        <v>-0.09330194834072784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.05744687459689603</v>
+      </c>
+      <c r="E3">
+        <v>-0.04544689087807735</v>
+      </c>
+      <c r="F3">
+        <v>-0.05951474184329596</v>
+      </c>
+      <c r="G3">
+        <v>0.09575896304823021</v>
+      </c>
+      <c r="H3">
+        <v>0.02676953950274335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05249685734843832</v>
+        <v>0.05273721318277867</v>
       </c>
       <c r="C4">
-        <v>-0.04791023590511177</v>
+        <v>0.06692452750336372</v>
       </c>
       <c r="D4">
-        <v>-0.1196742196223693</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1434438268579216</v>
+      </c>
+      <c r="E4">
+        <v>-0.0573524674841014</v>
+      </c>
+      <c r="F4">
+        <v>-0.02426533087458604</v>
+      </c>
+      <c r="G4">
+        <v>-0.03890760082877191</v>
+      </c>
+      <c r="H4">
+        <v>-0.03109558034944561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04067106267236602</v>
+        <v>0.03893071223798736</v>
       </c>
       <c r="C6">
-        <v>-0.01632285956351554</v>
+        <v>0.02920875965725136</v>
       </c>
       <c r="D6">
-        <v>-0.1373095199840948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1387171651111418</v>
+      </c>
+      <c r="E6">
+        <v>-0.02936238889956571</v>
+      </c>
+      <c r="F6">
+        <v>-0.01506696364545164</v>
+      </c>
+      <c r="G6">
+        <v>0.008250239934294211</v>
+      </c>
+      <c r="H6">
+        <v>-0.03430574607015231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01885943901917095</v>
+        <v>0.01322025710190127</v>
       </c>
       <c r="C7">
-        <v>-0.02308099819246481</v>
+        <v>0.03462350341325374</v>
       </c>
       <c r="D7">
-        <v>-0.1036183017658587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09796659180651784</v>
+      </c>
+      <c r="E7">
+        <v>-0.01918096488687493</v>
+      </c>
+      <c r="F7">
+        <v>-0.01987810750718573</v>
+      </c>
+      <c r="G7">
+        <v>0.01246916495735398</v>
+      </c>
+      <c r="H7">
+        <v>0.01577174766335699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008916354345336356</v>
+        <v>0.006270999268567407</v>
       </c>
       <c r="C8">
-        <v>-0.02653800187691214</v>
+        <v>0.03720342543064461</v>
       </c>
       <c r="D8">
-        <v>-0.05979696019216697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07838309123044547</v>
+      </c>
+      <c r="E8">
+        <v>-0.03313080171223806</v>
+      </c>
+      <c r="F8">
+        <v>-0.04411641028315143</v>
+      </c>
+      <c r="G8">
+        <v>0.01944947886895686</v>
+      </c>
+      <c r="H8">
+        <v>0.000863558091542577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04317500950513674</v>
+        <v>0.04153576391416463</v>
       </c>
       <c r="C9">
-        <v>-0.04690944653955565</v>
+        <v>0.06360066870103176</v>
       </c>
       <c r="D9">
-        <v>-0.1077885517306748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1206402776091235</v>
+      </c>
+      <c r="E9">
+        <v>-0.04085444501921143</v>
+      </c>
+      <c r="F9">
+        <v>-0.004713904532663172</v>
+      </c>
+      <c r="G9">
+        <v>-0.02548282887676597</v>
+      </c>
+      <c r="H9">
+        <v>-0.01209230829355264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1041403470698422</v>
+        <v>0.1451932785081207</v>
       </c>
       <c r="C10">
-        <v>0.1868017360287417</v>
+        <v>-0.188345746526926</v>
       </c>
       <c r="D10">
-        <v>0.002243566365033209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.006273991024372321</v>
+      </c>
+      <c r="E10">
+        <v>-0.04650982084263978</v>
+      </c>
+      <c r="F10">
+        <v>-0.02941656661768214</v>
+      </c>
+      <c r="G10">
+        <v>-0.03016191897058108</v>
+      </c>
+      <c r="H10">
+        <v>0.03031963409664466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03163234643548196</v>
+        <v>0.02784969468714217</v>
       </c>
       <c r="C11">
-        <v>-0.03854393209372087</v>
+        <v>0.04470698590497481</v>
       </c>
       <c r="D11">
-        <v>-0.05733639523985772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05806741487653251</v>
+      </c>
+      <c r="E11">
+        <v>0.007185778436677523</v>
+      </c>
+      <c r="F11">
+        <v>-0.001119850230852542</v>
+      </c>
+      <c r="G11">
+        <v>0.005244920016189032</v>
+      </c>
+      <c r="H11">
+        <v>0.005983143268881059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03848416894374851</v>
+        <v>0.03304492055544143</v>
       </c>
       <c r="C12">
-        <v>-0.03955917446119692</v>
+        <v>0.04658424387283337</v>
       </c>
       <c r="D12">
-        <v>-0.06133214706534819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05824008269386583</v>
+      </c>
+      <c r="E12">
+        <v>0.0006530787307266952</v>
+      </c>
+      <c r="F12">
+        <v>0.008084945566811368</v>
+      </c>
+      <c r="G12">
+        <v>0.008635365504264055</v>
+      </c>
+      <c r="H12">
+        <v>0.01969621839079283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.015846117370254</v>
+        <v>0.01665728655939237</v>
       </c>
       <c r="C13">
-        <v>-0.03320202089285737</v>
+        <v>0.04146662371053533</v>
       </c>
       <c r="D13">
-        <v>-0.1284315835920563</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1493957572530872</v>
+      </c>
+      <c r="E13">
+        <v>-0.03449018082399986</v>
+      </c>
+      <c r="F13">
+        <v>-0.03779243549925994</v>
+      </c>
+      <c r="G13">
+        <v>0.01935874414116182</v>
+      </c>
+      <c r="H13">
+        <v>0.005659094288920082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005619726309585777</v>
+        <v>0.00687551947695303</v>
       </c>
       <c r="C14">
-        <v>-0.01682309595066191</v>
+        <v>0.02389521371187618</v>
       </c>
       <c r="D14">
-        <v>-0.08451723892775234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.09136949383399057</v>
+      </c>
+      <c r="E14">
+        <v>-0.03268290116889574</v>
+      </c>
+      <c r="F14">
+        <v>0.0003194789153044288</v>
+      </c>
+      <c r="G14">
+        <v>0.02003934932515289</v>
+      </c>
+      <c r="H14">
+        <v>-0.008664296492751383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002160561972001868</v>
+        <v>0.001263056753983184</v>
       </c>
       <c r="C15">
-        <v>-0.001738315914081584</v>
+        <v>0.01178556635634229</v>
       </c>
       <c r="D15">
-        <v>-0.002589685454879213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03536414641372741</v>
+      </c>
+      <c r="E15">
+        <v>-0.00807214800490256</v>
+      </c>
+      <c r="F15">
+        <v>0.001075648605821754</v>
+      </c>
+      <c r="G15">
+        <v>0.009155340934724891</v>
+      </c>
+      <c r="H15">
+        <v>-0.01068292186280262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03176539152804373</v>
+        <v>0.02846980737836033</v>
       </c>
       <c r="C16">
-        <v>-0.04054047462415422</v>
+        <v>0.0446893525466144</v>
       </c>
       <c r="D16">
-        <v>-0.06695790447332098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06394974132937087</v>
+      </c>
+      <c r="E16">
+        <v>-0.005071699605197177</v>
+      </c>
+      <c r="F16">
+        <v>0.007879074588684252</v>
+      </c>
+      <c r="G16">
+        <v>0.00589673543892801</v>
+      </c>
+      <c r="H16">
+        <v>0.002103664745656355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008295684238235443</v>
+        <v>0.00577049845418831</v>
       </c>
       <c r="C19">
-        <v>-0.02744272466597892</v>
+        <v>0.02309756603126035</v>
       </c>
       <c r="D19">
-        <v>-0.1545908654049958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.118755584344587</v>
+      </c>
+      <c r="E19">
+        <v>-0.05789981343283518</v>
+      </c>
+      <c r="F19">
+        <v>0.003959210397963047</v>
+      </c>
+      <c r="G19">
+        <v>0.03270171406089906</v>
+      </c>
+      <c r="H19">
+        <v>0.01540274546989795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01490484215319442</v>
+        <v>0.01511168915036557</v>
       </c>
       <c r="C20">
-        <v>-0.0275358492490756</v>
+        <v>0.03422244244921773</v>
       </c>
       <c r="D20">
-        <v>-0.08470591534405707</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1010090423067849</v>
+      </c>
+      <c r="E20">
+        <v>-0.04977412068447092</v>
+      </c>
+      <c r="F20">
+        <v>-0.001549337965201384</v>
+      </c>
+      <c r="G20">
+        <v>0.005305178321468504</v>
+      </c>
+      <c r="H20">
+        <v>-0.006690234325191247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008511578822853283</v>
+        <v>0.009300809956066114</v>
       </c>
       <c r="C21">
-        <v>-0.02870057518808385</v>
+        <v>0.03895246910950363</v>
       </c>
       <c r="D21">
-        <v>-0.1266212437719807</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1391296850205793</v>
+      </c>
+      <c r="E21">
+        <v>-0.07922220294039892</v>
+      </c>
+      <c r="F21">
+        <v>-0.004805418034390505</v>
+      </c>
+      <c r="G21">
+        <v>-0.009965469937960667</v>
+      </c>
+      <c r="H21">
+        <v>0.03195159501127846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006114736666715367</v>
+        <v>0.005316494586144532</v>
       </c>
       <c r="C22">
-        <v>-0.02841172212468972</v>
+        <v>0.04205062103544708</v>
       </c>
       <c r="D22">
-        <v>-0.09889021690139432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1539606740583294</v>
+      </c>
+      <c r="E22">
+        <v>-0.02858723185523591</v>
+      </c>
+      <c r="F22">
+        <v>-0.08854461015346467</v>
+      </c>
+      <c r="G22">
+        <v>0.06691906100798585</v>
+      </c>
+      <c r="H22">
+        <v>-0.07668565012112881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00623126021390099</v>
+        <v>0.005413641049559714</v>
       </c>
       <c r="C23">
-        <v>-0.02837384506729506</v>
+        <v>0.04252281494397048</v>
       </c>
       <c r="D23">
-        <v>-0.09817714452728417</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1533858409134822</v>
+      </c>
+      <c r="E23">
+        <v>-0.02887225730708372</v>
+      </c>
+      <c r="F23">
+        <v>-0.08851707507110393</v>
+      </c>
+      <c r="G23">
+        <v>0.06597440571716155</v>
+      </c>
+      <c r="H23">
+        <v>-0.07652334378349261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03535776629456712</v>
+        <v>0.03039417679624159</v>
       </c>
       <c r="C24">
-        <v>-0.04884886120245602</v>
+        <v>0.0563521537672371</v>
       </c>
       <c r="D24">
-        <v>-0.06601633209188779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06701150464648944</v>
+      </c>
+      <c r="E24">
+        <v>-0.01159220873413318</v>
+      </c>
+      <c r="F24">
+        <v>0.004064830071440801</v>
+      </c>
+      <c r="G24">
+        <v>0.0001417359262231747</v>
+      </c>
+      <c r="H24">
+        <v>0.00879035330376436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.038609060939366</v>
+        <v>0.03432908205279123</v>
       </c>
       <c r="C25">
-        <v>-0.04855731759607577</v>
+        <v>0.05402527990070885</v>
       </c>
       <c r="D25">
-        <v>-0.06544104035789093</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06304010378346132</v>
+      </c>
+      <c r="E25">
+        <v>-0.01162233250459262</v>
+      </c>
+      <c r="F25">
+        <v>-0.0009942567172096901</v>
+      </c>
+      <c r="G25">
+        <v>0.001602547493429309</v>
+      </c>
+      <c r="H25">
+        <v>0.02053347144224112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01821842956931592</v>
+        <v>0.01798437465775512</v>
       </c>
       <c r="C26">
-        <v>-0.0075788024134019</v>
+        <v>0.01753806569471845</v>
       </c>
       <c r="D26">
-        <v>-0.0557004864147473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06487192231954253</v>
+      </c>
+      <c r="E26">
+        <v>-0.02216697185433165</v>
+      </c>
+      <c r="F26">
+        <v>-0.006777737172716363</v>
+      </c>
+      <c r="G26">
+        <v>0.008850563354421416</v>
+      </c>
+      <c r="H26">
+        <v>-0.008774784874913722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1541369081469155</v>
+        <v>0.2050430546478208</v>
       </c>
       <c r="C28">
-        <v>0.2609872927800946</v>
+        <v>-0.2504477005658385</v>
       </c>
       <c r="D28">
-        <v>0.03217861512419858</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01133076081000139</v>
+      </c>
+      <c r="E28">
+        <v>-0.07573561885713376</v>
+      </c>
+      <c r="F28">
+        <v>-0.00928165933795253</v>
+      </c>
+      <c r="G28">
+        <v>-0.0571173667004572</v>
+      </c>
+      <c r="H28">
+        <v>0.03721780110077757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003627935493593793</v>
+        <v>0.004736134185516467</v>
       </c>
       <c r="C29">
-        <v>-0.01609679870413712</v>
+        <v>0.02256864098822139</v>
       </c>
       <c r="D29">
-        <v>-0.06931639108748244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.08862494340853826</v>
+      </c>
+      <c r="E29">
+        <v>-0.02851585800527956</v>
+      </c>
+      <c r="F29">
+        <v>-0.01412931428230626</v>
+      </c>
+      <c r="G29">
+        <v>0.001714172339995161</v>
+      </c>
+      <c r="H29">
+        <v>-0.005487342087587015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03550164333393382</v>
+        <v>0.04016322207334332</v>
       </c>
       <c r="C30">
-        <v>-0.03500178691497205</v>
+        <v>0.06039703637398502</v>
       </c>
       <c r="D30">
-        <v>-0.1647735083048061</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1792441219237764</v>
+      </c>
+      <c r="E30">
+        <v>-0.02043255855397157</v>
+      </c>
+      <c r="F30">
+        <v>-0.01569332008338531</v>
+      </c>
+      <c r="G30">
+        <v>0.01681720331114107</v>
+      </c>
+      <c r="H30">
+        <v>-0.06961540850508419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06368855853381539</v>
+        <v>0.05305220979027259</v>
       </c>
       <c r="C31">
-        <v>-0.05451220212216126</v>
+        <v>0.0742465619969563</v>
       </c>
       <c r="D31">
-        <v>-0.0665147633743895</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05173131348363696</v>
+      </c>
+      <c r="E31">
+        <v>-0.02724411386026597</v>
+      </c>
+      <c r="F31">
+        <v>-0.03139867780769415</v>
+      </c>
+      <c r="G31">
+        <v>-0.01214935996931681</v>
+      </c>
+      <c r="H31">
+        <v>0.01823379829539939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.003513818849122679</v>
+        <v>0.01182196230446134</v>
       </c>
       <c r="C32">
-        <v>-0.02036515850318798</v>
+        <v>0.01822731203931342</v>
       </c>
       <c r="D32">
-        <v>-0.06483117146726715</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1098404487479896</v>
+      </c>
+      <c r="E32">
+        <v>-0.09287083720636209</v>
+      </c>
+      <c r="F32">
+        <v>-0.01771076736913263</v>
+      </c>
+      <c r="G32">
+        <v>-0.009810513511205231</v>
+      </c>
+      <c r="H32">
+        <v>0.03301100702634727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02294019749045005</v>
+        <v>0.02317395828002848</v>
       </c>
       <c r="C33">
-        <v>-0.03147314893021089</v>
+        <v>0.04416508874587614</v>
       </c>
       <c r="D33">
-        <v>-0.1361713119111966</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1364019973005743</v>
+      </c>
+      <c r="E33">
+        <v>-0.03816943391845274</v>
+      </c>
+      <c r="F33">
+        <v>-0.01586006917112877</v>
+      </c>
+      <c r="G33">
+        <v>0.01174709549050353</v>
+      </c>
+      <c r="H33">
+        <v>-0.0002598813582858505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03254544251886816</v>
+        <v>0.02624335217121338</v>
       </c>
       <c r="C34">
-        <v>-0.06158023307645742</v>
+        <v>0.06169765901815332</v>
       </c>
       <c r="D34">
-        <v>-0.06812659675803272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05545933948018567</v>
+      </c>
+      <c r="E34">
+        <v>0.006441294835328332</v>
+      </c>
+      <c r="F34">
+        <v>0.01034886002303395</v>
+      </c>
+      <c r="G34">
+        <v>0.01123727717361735</v>
+      </c>
+      <c r="H34">
+        <v>0.02301721015164371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0008598336577552201</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001048278886206783</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.005820871138868117</v>
+      </c>
+      <c r="E35">
+        <v>-0.001337472767751649</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007127380592806501</v>
+      </c>
+      <c r="G35">
+        <v>0.001080354897814597</v>
+      </c>
+      <c r="H35">
+        <v>-0.001126503376160398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02011744048811644</v>
+        <v>0.01906144616370763</v>
       </c>
       <c r="C36">
-        <v>-0.00227572995528919</v>
+        <v>0.01399702257733814</v>
       </c>
       <c r="D36">
-        <v>-0.07171100032310819</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07734828115692667</v>
+      </c>
+      <c r="E36">
+        <v>-0.02933502063529097</v>
+      </c>
+      <c r="F36">
+        <v>-0.004839893113836688</v>
+      </c>
+      <c r="G36">
+        <v>-0.004361172167876139</v>
+      </c>
+      <c r="H36">
+        <v>-0.00482996861348407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01937450683275663</v>
+        <v>0.02019017270443903</v>
       </c>
       <c r="C38">
-        <v>-0.01524818884127484</v>
+        <v>0.01935106816914164</v>
       </c>
       <c r="D38">
-        <v>-0.0557557816448945</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06238343806552123</v>
+      </c>
+      <c r="E38">
+        <v>-0.03445168858152474</v>
+      </c>
+      <c r="F38">
+        <v>0.005813274284749506</v>
+      </c>
+      <c r="G38">
+        <v>0.0399269497662849</v>
+      </c>
+      <c r="H38">
+        <v>0.005028420014888252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03750527426113793</v>
+        <v>0.03429116115911632</v>
       </c>
       <c r="C39">
-        <v>-0.04922302979865021</v>
+        <v>0.06741381355883042</v>
       </c>
       <c r="D39">
-        <v>-0.08804645821649586</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1041805322335026</v>
+      </c>
+      <c r="E39">
+        <v>-0.005838834403382328</v>
+      </c>
+      <c r="F39">
+        <v>0.02686419357852989</v>
+      </c>
+      <c r="G39">
+        <v>0.009757263978579211</v>
+      </c>
+      <c r="H39">
+        <v>-0.01017047474128054</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01785395201541975</v>
+        <v>0.01248180919257243</v>
       </c>
       <c r="C40">
-        <v>-0.04244253786272001</v>
+        <v>0.04065999466405418</v>
       </c>
       <c r="D40">
-        <v>-0.07413012780877871</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08294702230901461</v>
+      </c>
+      <c r="E40">
+        <v>-0.05710776724288831</v>
+      </c>
+      <c r="F40">
+        <v>-0.07577316693353021</v>
+      </c>
+      <c r="G40">
+        <v>0.08266485391117101</v>
+      </c>
+      <c r="H40">
+        <v>0.04786779629661372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02485190562045675</v>
+        <v>0.02343627072852091</v>
       </c>
       <c r="C41">
-        <v>0.001564637534095057</v>
+        <v>0.008450640193480909</v>
       </c>
       <c r="D41">
-        <v>-0.06633377912397045</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05619107423510965</v>
+      </c>
+      <c r="E41">
+        <v>-0.05267997360869357</v>
+      </c>
+      <c r="F41">
+        <v>-0.004393028134755918</v>
+      </c>
+      <c r="G41">
+        <v>0.02119965761783963</v>
+      </c>
+      <c r="H41">
+        <v>0.008773975739044161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02851250893244192</v>
+        <v>0.02331707069665887</v>
       </c>
       <c r="C43">
-        <v>-0.01008356596167833</v>
+        <v>0.01804387741977974</v>
       </c>
       <c r="D43">
-        <v>-0.1038446284574749</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08442685717926927</v>
+      </c>
+      <c r="E43">
+        <v>-0.02945429291586099</v>
+      </c>
+      <c r="F43">
+        <v>-0.005339792946511959</v>
+      </c>
+      <c r="G43">
+        <v>0.02216518444160963</v>
+      </c>
+      <c r="H43">
+        <v>0.01926649944937432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01365138964064846</v>
+        <v>0.01606547981668326</v>
       </c>
       <c r="C44">
-        <v>-0.04412051791818911</v>
+        <v>0.04275268804510248</v>
       </c>
       <c r="D44">
-        <v>-0.08207924908937274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1037509896445862</v>
+      </c>
+      <c r="E44">
+        <v>-0.06102353573856369</v>
+      </c>
+      <c r="F44">
+        <v>-0.01438955593792771</v>
+      </c>
+      <c r="G44">
+        <v>0.01326631872559063</v>
+      </c>
+      <c r="H44">
+        <v>0.01428585223788414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01545840298328383</v>
+        <v>0.01324726107241495</v>
       </c>
       <c r="C46">
-        <v>-0.01918472819848492</v>
+        <v>0.02945053583946461</v>
       </c>
       <c r="D46">
-        <v>-0.07784386565182623</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08556217511419187</v>
+      </c>
+      <c r="E46">
+        <v>-0.0334536009363991</v>
+      </c>
+      <c r="F46">
+        <v>0.01263562611830147</v>
+      </c>
+      <c r="G46">
+        <v>-0.003182124838944575</v>
+      </c>
+      <c r="H46">
+        <v>0.01401110990562692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09299575817592151</v>
+        <v>0.08072779025877914</v>
       </c>
       <c r="C47">
-        <v>-0.07687716872370894</v>
+        <v>0.09235862911944689</v>
       </c>
       <c r="D47">
-        <v>-0.04917801229032653</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03539993912695195</v>
+      </c>
+      <c r="E47">
+        <v>-0.03397724591528842</v>
+      </c>
+      <c r="F47">
+        <v>-0.0180125438908122</v>
+      </c>
+      <c r="G47">
+        <v>-0.02672001184068371</v>
+      </c>
+      <c r="H47">
+        <v>0.07967106510909108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01406809631929585</v>
+        <v>0.01593838177359273</v>
       </c>
       <c r="C48">
-        <v>-0.01195844703562655</v>
+        <v>0.0191134799649327</v>
       </c>
       <c r="D48">
-        <v>-0.06288337304141581</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0730109267576864</v>
+      </c>
+      <c r="E48">
+        <v>-0.04862245089050813</v>
+      </c>
+      <c r="F48">
+        <v>-0.003536372107544993</v>
+      </c>
+      <c r="G48">
+        <v>-0.0009684864037948866</v>
+      </c>
+      <c r="H48">
+        <v>-0.004500370176950075</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0589160206647398</v>
+        <v>0.05141470052115978</v>
       </c>
       <c r="C50">
-        <v>-0.05472061640346684</v>
+        <v>0.06778098978688886</v>
       </c>
       <c r="D50">
-        <v>-0.0649853243282776</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05497846609150313</v>
+      </c>
+      <c r="E50">
+        <v>-0.03901695057754313</v>
+      </c>
+      <c r="F50">
+        <v>-0.04017709885613763</v>
+      </c>
+      <c r="G50">
+        <v>0.02414875609195671</v>
+      </c>
+      <c r="H50">
+        <v>0.02165568652884624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01003736355259177</v>
+        <v>0.01021179942059926</v>
       </c>
       <c r="C51">
-        <v>-0.01410236008819137</v>
+        <v>0.0198342284500963</v>
       </c>
       <c r="D51">
-        <v>-0.07796219612702333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08996114363342264</v>
+      </c>
+      <c r="E51">
+        <v>-0.01429921651820357</v>
+      </c>
+      <c r="F51">
+        <v>-0.005836918015101036</v>
+      </c>
+      <c r="G51">
+        <v>0.01822195850969933</v>
+      </c>
+      <c r="H51">
+        <v>-0.02400491715755126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08802176661386013</v>
+        <v>0.08458551694017261</v>
       </c>
       <c r="C53">
-        <v>-0.086420489017927</v>
+        <v>0.1021677475773398</v>
       </c>
       <c r="D53">
-        <v>-0.003109932315787102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01540446516613703</v>
+      </c>
+      <c r="E53">
+        <v>-0.1093748888581741</v>
+      </c>
+      <c r="F53">
+        <v>-0.04786200777213804</v>
+      </c>
+      <c r="G53">
+        <v>-0.08348811489790495</v>
+      </c>
+      <c r="H53">
+        <v>0.026967213547284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0287365336075022</v>
+        <v>0.02508210175873947</v>
       </c>
       <c r="C54">
-        <v>-0.02607827417873231</v>
+        <v>0.03496049105603029</v>
       </c>
       <c r="D54">
-        <v>-0.09070180412272982</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08868938562336723</v>
+      </c>
+      <c r="E54">
+        <v>-0.03617769433305051</v>
+      </c>
+      <c r="F54">
+        <v>0.008571296852238742</v>
+      </c>
+      <c r="G54">
+        <v>0.0321030566719305</v>
+      </c>
+      <c r="H54">
+        <v>0.02381903160226025</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09184530316890362</v>
+        <v>0.08362937251372633</v>
       </c>
       <c r="C55">
-        <v>-0.060128964464774</v>
+        <v>0.0810800623089737</v>
       </c>
       <c r="D55">
-        <v>0.01494370383755404</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006567531828321459</v>
+      </c>
+      <c r="E55">
+        <v>-0.05815974719929132</v>
+      </c>
+      <c r="F55">
+        <v>-0.0419833115562082</v>
+      </c>
+      <c r="G55">
+        <v>-0.04375856894702551</v>
+      </c>
+      <c r="H55">
+        <v>0.007420960377397626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1376573598754992</v>
+        <v>0.1268364083017195</v>
       </c>
       <c r="C56">
-        <v>-0.09918754370381151</v>
+        <v>0.1278766602155076</v>
       </c>
       <c r="D56">
-        <v>0.00716657048607222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01013073216440871</v>
+      </c>
+      <c r="E56">
+        <v>-0.06153383506245905</v>
+      </c>
+      <c r="F56">
+        <v>-0.02953022198816946</v>
+      </c>
+      <c r="G56">
+        <v>-0.03939604505427641</v>
+      </c>
+      <c r="H56">
+        <v>0.05417483615647834</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01566607539488121</v>
+        <v>0.02386531609586367</v>
       </c>
       <c r="C58">
-        <v>0.009683710407470394</v>
+        <v>0.02659643124386272</v>
       </c>
       <c r="D58">
-        <v>-0.2982496893324028</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3549401650360661</v>
+      </c>
+      <c r="E58">
+        <v>-0.1931719078275316</v>
+      </c>
+      <c r="F58">
+        <v>-0.137492319969393</v>
+      </c>
+      <c r="G58">
+        <v>0.1849953783490585</v>
+      </c>
+      <c r="H58">
+        <v>-0.3297516855109157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1438619290144313</v>
+        <v>0.1808180706103582</v>
       </c>
       <c r="C59">
-        <v>0.188494264510271</v>
+        <v>-0.1673936979994702</v>
       </c>
       <c r="D59">
-        <v>-0.03079525381457584</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05292130287766039</v>
+      </c>
+      <c r="E59">
+        <v>-0.01900348471556538</v>
+      </c>
+      <c r="F59">
+        <v>0.04292713515585899</v>
+      </c>
+      <c r="G59">
+        <v>-0.0009361368273689617</v>
+      </c>
+      <c r="H59">
+        <v>-0.005013516150024563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2459145461834174</v>
+        <v>0.2278723418884226</v>
       </c>
       <c r="C60">
-        <v>-0.06550702668827524</v>
+        <v>0.1052813108417751</v>
       </c>
       <c r="D60">
-        <v>-0.2131996748565123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1217075666436214</v>
+      </c>
+      <c r="E60">
+        <v>0.358874049236647</v>
+      </c>
+      <c r="F60">
+        <v>-0.01645936902858697</v>
+      </c>
+      <c r="G60">
+        <v>-0.04792297209219747</v>
+      </c>
+      <c r="H60">
+        <v>-0.007956097011493152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04419608755497949</v>
+        <v>0.03923604493832682</v>
       </c>
       <c r="C61">
-        <v>-0.05065874233061262</v>
+        <v>0.06268763716036027</v>
       </c>
       <c r="D61">
-        <v>-0.09962880682955483</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09220269199583009</v>
+      </c>
+      <c r="E61">
+        <v>-0.0002251365496251402</v>
+      </c>
+      <c r="F61">
+        <v>0.0202183275518947</v>
+      </c>
+      <c r="G61">
+        <v>0.002133910008946656</v>
+      </c>
+      <c r="H61">
+        <v>0.02117426891038337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01697987142829152</v>
+        <v>0.01457451690856091</v>
       </c>
       <c r="C63">
-        <v>-0.02144611249021047</v>
+        <v>0.0326806499111672</v>
       </c>
       <c r="D63">
-        <v>-0.06056978295862362</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06767193588878317</v>
+      </c>
+      <c r="E63">
+        <v>-0.0266194454616545</v>
+      </c>
+      <c r="F63">
+        <v>-0.01883388711557819</v>
+      </c>
+      <c r="G63">
+        <v>0.006040164640276196</v>
+      </c>
+      <c r="H63">
+        <v>-0.01673241116206058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05706402304301166</v>
+        <v>0.05182724621149379</v>
       </c>
       <c r="C64">
-        <v>-0.06677914891713808</v>
+        <v>0.08254209230437913</v>
       </c>
       <c r="D64">
-        <v>-0.06144874176807907</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05638665357847162</v>
+      </c>
+      <c r="E64">
+        <v>-0.02020803606794124</v>
+      </c>
+      <c r="F64">
+        <v>0.01634400431312101</v>
+      </c>
+      <c r="G64">
+        <v>-0.0478093461126864</v>
+      </c>
+      <c r="H64">
+        <v>-0.004267730874683402</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04797671202633168</v>
+        <v>0.04466616432459911</v>
       </c>
       <c r="C65">
-        <v>-0.009493021211583607</v>
+        <v>0.0274260990843114</v>
       </c>
       <c r="D65">
-        <v>-0.1173684267178205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1186405176592076</v>
+      </c>
+      <c r="E65">
+        <v>-0.003578216618821751</v>
+      </c>
+      <c r="F65">
+        <v>-0.01782448559126939</v>
+      </c>
+      <c r="G65">
+        <v>0.02715868748917851</v>
+      </c>
+      <c r="H65">
+        <v>-0.03391065029914463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04226929256266632</v>
+        <v>0.03843646662689347</v>
       </c>
       <c r="C66">
-        <v>-0.05608274470572349</v>
+        <v>0.07719109591041158</v>
       </c>
       <c r="D66">
-        <v>-0.1096795117331254</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1311171206262272</v>
+      </c>
+      <c r="E66">
+        <v>-0.01176366902951276</v>
+      </c>
+      <c r="F66">
+        <v>0.01490826543645771</v>
+      </c>
+      <c r="G66">
+        <v>0.02108079979657487</v>
+      </c>
+      <c r="H66">
+        <v>-0.009339845603607604</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0395156933144391</v>
+        <v>0.03769001439892758</v>
       </c>
       <c r="C67">
-        <v>-0.01928600089598911</v>
+        <v>0.02558793086316562</v>
       </c>
       <c r="D67">
-        <v>-0.0262756821271092</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0222034319059982</v>
+      </c>
+      <c r="E67">
+        <v>-0.01276435445836609</v>
+      </c>
+      <c r="F67">
+        <v>0.005388801625783183</v>
+      </c>
+      <c r="G67">
+        <v>0.03565118388992251</v>
+      </c>
+      <c r="H67">
+        <v>0.005351118211635181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1656823935759937</v>
+        <v>0.1985704249907638</v>
       </c>
       <c r="C68">
-        <v>0.2308897996803858</v>
+        <v>-0.1948558332421186</v>
       </c>
       <c r="D68">
-        <v>0.01336722784936504</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01522099893470616</v>
+      </c>
+      <c r="E68">
+        <v>-0.04904225425486528</v>
+      </c>
+      <c r="F68">
+        <v>-0.0338633833939828</v>
+      </c>
+      <c r="G68">
+        <v>0.007209954772642481</v>
+      </c>
+      <c r="H68">
+        <v>-0.02130254067435114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08400832332418072</v>
+        <v>0.07224100791669168</v>
       </c>
       <c r="C69">
-        <v>-0.08658967942193987</v>
+        <v>0.09742379642204842</v>
       </c>
       <c r="D69">
-        <v>-0.07016455702852904</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04903412625883329</v>
+      </c>
+      <c r="E69">
+        <v>-0.02109487305032836</v>
+      </c>
+      <c r="F69">
+        <v>-0.007358582995172492</v>
+      </c>
+      <c r="G69">
+        <v>-0.02226160588051658</v>
+      </c>
+      <c r="H69">
+        <v>0.05309901909224381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1453199319325634</v>
+        <v>0.1864552943575751</v>
       </c>
       <c r="C71">
-        <v>0.234046867705361</v>
+        <v>-0.2071343313791507</v>
       </c>
       <c r="D71">
-        <v>-0.01907556557970187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.04091369160537893</v>
+      </c>
+      <c r="E71">
+        <v>-0.05305814291341975</v>
+      </c>
+      <c r="F71">
+        <v>-0.03413272109827475</v>
+      </c>
+      <c r="G71">
+        <v>-0.01031701618121277</v>
+      </c>
+      <c r="H71">
+        <v>0.03745875409113034</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09745749753485716</v>
+        <v>0.09803517228953831</v>
       </c>
       <c r="C72">
-        <v>-0.04430425176463581</v>
+        <v>0.07448923201785167</v>
       </c>
       <c r="D72">
-        <v>-0.09178574910304015</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09684232921908241</v>
+      </c>
+      <c r="E72">
+        <v>0.03571208248009225</v>
+      </c>
+      <c r="F72">
+        <v>-0.0360678682384918</v>
+      </c>
+      <c r="G72">
+        <v>-0.03041965906467403</v>
+      </c>
+      <c r="H72">
+        <v>-0.02433218993377706</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.260634058467569</v>
+        <v>0.2387598254663611</v>
       </c>
       <c r="C73">
-        <v>-0.02847702945486585</v>
+        <v>0.09092090054042971</v>
       </c>
       <c r="D73">
-        <v>-0.3231727998190744</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1621011392626636</v>
+      </c>
+      <c r="E73">
+        <v>0.6634898782992356</v>
+      </c>
+      <c r="F73">
+        <v>0.008715324791811066</v>
+      </c>
+      <c r="G73">
+        <v>-0.04615028536027323</v>
+      </c>
+      <c r="H73">
+        <v>-0.05825968556220568</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.108120211230999</v>
+        <v>0.09690558351747519</v>
       </c>
       <c r="C74">
-        <v>-0.06984510952546273</v>
+        <v>0.09199093703948566</v>
       </c>
       <c r="D74">
-        <v>-0.005574027824236742</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.003417943108722488</v>
+      </c>
+      <c r="E74">
+        <v>-0.07724036105413082</v>
+      </c>
+      <c r="F74">
+        <v>-0.06759109624672195</v>
+      </c>
+      <c r="G74">
+        <v>-0.06161395151361614</v>
+      </c>
+      <c r="H74">
+        <v>-0.002497881322464847</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2459262064728088</v>
+        <v>0.2242090925170407</v>
       </c>
       <c r="C75">
-        <v>-0.1317165402584777</v>
+        <v>0.1691463099772239</v>
       </c>
       <c r="D75">
-        <v>0.07250284462273822</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09560113978535083</v>
+      </c>
+      <c r="E75">
+        <v>-0.1060254948563764</v>
+      </c>
+      <c r="F75">
+        <v>0.01324232911651485</v>
+      </c>
+      <c r="G75">
+        <v>-0.0491919044237104</v>
+      </c>
+      <c r="H75">
+        <v>0.04299221847521689</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1389171373882818</v>
+        <v>0.1244249675275605</v>
       </c>
       <c r="C76">
-        <v>-0.09102854004679449</v>
+        <v>0.1154501583877367</v>
       </c>
       <c r="D76">
-        <v>0.01309021295470092</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01087637013038053</v>
+      </c>
+      <c r="E76">
+        <v>-0.1182863264102734</v>
+      </c>
+      <c r="F76">
+        <v>-0.01986223569715631</v>
+      </c>
+      <c r="G76">
+        <v>-0.03973839839021872</v>
+      </c>
+      <c r="H76">
+        <v>0.02349243613358298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.05544861832441027</v>
+        <v>0.0568204125416717</v>
       </c>
       <c r="C77">
-        <v>-0.07044872069344545</v>
+        <v>0.07293742981816803</v>
       </c>
       <c r="D77">
-        <v>-0.02796148397648223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1259014186898838</v>
+      </c>
+      <c r="E77">
+        <v>-0.2379722287062315</v>
+      </c>
+      <c r="F77">
+        <v>0.2781544478698834</v>
+      </c>
+      <c r="G77">
+        <v>0.259270573186568</v>
+      </c>
+      <c r="H77">
+        <v>0.4135055702383298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03981262439439795</v>
+        <v>0.04248812286567261</v>
       </c>
       <c r="C78">
-        <v>-0.05541207780072699</v>
+        <v>0.06850222422109002</v>
       </c>
       <c r="D78">
-        <v>-0.1216477987585091</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1354322659494868</v>
+      </c>
+      <c r="E78">
+        <v>-0.0118039495992076</v>
+      </c>
+      <c r="F78">
+        <v>-0.006954972436916713</v>
+      </c>
+      <c r="G78">
+        <v>-0.007594233159838912</v>
+      </c>
+      <c r="H78">
+        <v>0.02202713356723535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02595406647288793</v>
+        <v>0.04572620532603555</v>
       </c>
       <c r="C79">
-        <v>-0.08002891457265859</v>
+        <v>0.09508351071517163</v>
       </c>
       <c r="D79">
-        <v>0.06530622203585311</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02147258182620695</v>
+      </c>
+      <c r="E79">
+        <v>-0.2218731326567227</v>
+      </c>
+      <c r="F79">
+        <v>-0.146691516201252</v>
+      </c>
+      <c r="G79">
+        <v>-0.7690235412105454</v>
+      </c>
+      <c r="H79">
+        <v>-0.1803427630272677</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02869793599284076</v>
+        <v>0.02435453841722773</v>
       </c>
       <c r="C80">
-        <v>-0.03685719029677904</v>
+        <v>0.04655338059990068</v>
       </c>
       <c r="D80">
-        <v>-0.01921856527764263</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02406170634014106</v>
+      </c>
+      <c r="E80">
+        <v>-0.02235242763815962</v>
+      </c>
+      <c r="F80">
+        <v>-0.004378043384054239</v>
+      </c>
+      <c r="G80">
+        <v>0.03262196835726776</v>
+      </c>
+      <c r="H80">
+        <v>-0.0446239311117233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1430886524721821</v>
+        <v>0.1256232127873509</v>
       </c>
       <c r="C81">
-        <v>-0.0999926586977947</v>
+        <v>0.121372383764021</v>
       </c>
       <c r="D81">
-        <v>0.06042547329031296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0707859164720176</v>
+      </c>
+      <c r="E81">
+        <v>-0.1100728536024045</v>
+      </c>
+      <c r="F81">
+        <v>-0.02381957030818762</v>
+      </c>
+      <c r="G81">
+        <v>-0.04163293282774785</v>
+      </c>
+      <c r="H81">
+        <v>0.02599035007770896</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3118371616647986</v>
+        <v>0.2537723473330484</v>
       </c>
       <c r="C82">
-        <v>-0.2632451989604097</v>
+        <v>0.2661842462665834</v>
       </c>
       <c r="D82">
-        <v>0.2293505455386133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2410103153749504</v>
+      </c>
+      <c r="E82">
+        <v>0.02151063042295457</v>
+      </c>
+      <c r="F82">
+        <v>-0.04274317051272093</v>
+      </c>
+      <c r="G82">
+        <v>0.006476194536271449</v>
+      </c>
+      <c r="H82">
+        <v>0.5287527537456638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02787704016849442</v>
+        <v>0.02041909915509268</v>
       </c>
       <c r="C83">
-        <v>-0.05032586068911071</v>
+        <v>0.05219468295912921</v>
       </c>
       <c r="D83">
-        <v>-0.04500475456281137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04450719862177263</v>
+      </c>
+      <c r="E83">
+        <v>-0.01792088983201373</v>
+      </c>
+      <c r="F83">
+        <v>0.05387509411497086</v>
+      </c>
+      <c r="G83">
+        <v>0.04841470602146947</v>
+      </c>
+      <c r="H83">
+        <v>0.07685962866747688</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0007227238336208895</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004477845520139469</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01871876473958912</v>
+      </c>
+      <c r="E84">
+        <v>-0.0191438381605677</v>
+      </c>
+      <c r="F84">
+        <v>-0.01037134852880915</v>
+      </c>
+      <c r="G84">
+        <v>0.006137421486845436</v>
+      </c>
+      <c r="H84">
+        <v>-0.01578224656997869</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1762707213126032</v>
+        <v>0.1542494297987687</v>
       </c>
       <c r="C85">
-        <v>-0.1032909769661997</v>
+        <v>0.1388316729348243</v>
       </c>
       <c r="D85">
-        <v>0.03102467218242746</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.05764126416173754</v>
+      </c>
+      <c r="E85">
+        <v>-0.05355810168602263</v>
+      </c>
+      <c r="F85">
+        <v>-0.02664774881448068</v>
+      </c>
+      <c r="G85">
+        <v>-0.09875773173787367</v>
+      </c>
+      <c r="H85">
+        <v>-0.05914618499086113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01443262793183738</v>
+        <v>0.01919668759076507</v>
       </c>
       <c r="C86">
-        <v>-0.03399522429149711</v>
+        <v>0.02450342416508693</v>
       </c>
       <c r="D86">
-        <v>-0.1272243817752276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1205107329736493</v>
+      </c>
+      <c r="E86">
+        <v>-0.003739890274143458</v>
+      </c>
+      <c r="F86">
+        <v>0.02059444308995045</v>
+      </c>
+      <c r="G86">
+        <v>0.01493997288176712</v>
+      </c>
+      <c r="H86">
+        <v>0.1235853285603794</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0275213317774004</v>
+        <v>0.03550577221244489</v>
       </c>
       <c r="C87">
-        <v>-0.008893328051876433</v>
+        <v>0.02572967069179097</v>
       </c>
       <c r="D87">
-        <v>-0.09766423776365733</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1377651948793783</v>
+      </c>
+      <c r="E87">
+        <v>-0.07565480152315308</v>
+      </c>
+      <c r="F87">
+        <v>0.003793788992200993</v>
+      </c>
+      <c r="G87">
+        <v>0.02164605683200407</v>
+      </c>
+      <c r="H87">
+        <v>-0.009571516119836875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07601375622710595</v>
+        <v>0.06863375173392579</v>
       </c>
       <c r="C88">
-        <v>-0.03422740396550657</v>
+        <v>0.05321892453572624</v>
       </c>
       <c r="D88">
-        <v>-0.04904078195642836</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02803364664768934</v>
+      </c>
+      <c r="E88">
+        <v>0.001175471851369059</v>
+      </c>
+      <c r="F88">
+        <v>-0.02108673915724304</v>
+      </c>
+      <c r="G88">
+        <v>-0.00790368154180246</v>
+      </c>
+      <c r="H88">
+        <v>-0.002381321507204783</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2235343537537094</v>
+        <v>0.2853561123984034</v>
       </c>
       <c r="C89">
-        <v>0.4002066601833682</v>
+        <v>-0.3500246039135756</v>
       </c>
       <c r="D89">
-        <v>0.03505374043935326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.001568811850110333</v>
+      </c>
+      <c r="E89">
+        <v>-0.04458708235471582</v>
+      </c>
+      <c r="F89">
+        <v>0.03803983190207606</v>
+      </c>
+      <c r="G89">
+        <v>-0.04188539272105377</v>
+      </c>
+      <c r="H89">
+        <v>0.005604809514260337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2017200259442412</v>
+        <v>0.24249235518294</v>
       </c>
       <c r="C90">
-        <v>0.2958951239250558</v>
+        <v>-0.2479980725895418</v>
       </c>
       <c r="D90">
-        <v>0.01141131123266095</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02065101671328883</v>
+      </c>
+      <c r="E90">
+        <v>-0.05065308721902283</v>
+      </c>
+      <c r="F90">
+        <v>-0.002603417776165514</v>
+      </c>
+      <c r="G90">
+        <v>0.06083491393731492</v>
+      </c>
+      <c r="H90">
+        <v>0.01630866956286386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1835526669090204</v>
+        <v>0.1560370914402542</v>
       </c>
       <c r="C91">
-        <v>-0.1440500866053125</v>
+        <v>0.1592521999030144</v>
       </c>
       <c r="D91">
-        <v>0.08245270053522014</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08427705001160583</v>
+      </c>
+      <c r="E91">
+        <v>-0.1076752385502723</v>
+      </c>
+      <c r="F91">
+        <v>-0.02137779836793166</v>
+      </c>
+      <c r="G91">
+        <v>-0.09448662570771475</v>
+      </c>
+      <c r="H91">
+        <v>0.008470546358038306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1764887680630044</v>
+        <v>0.2272971193410877</v>
       </c>
       <c r="C92">
-        <v>0.2900022720193653</v>
+        <v>-0.2690855573950121</v>
       </c>
       <c r="D92">
-        <v>-0.0058751769983825</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03119178765852022</v>
+      </c>
+      <c r="E92">
+        <v>-0.09499815106822118</v>
+      </c>
+      <c r="F92">
+        <v>0.002630927722722702</v>
+      </c>
+      <c r="G92">
+        <v>0.02634578857585361</v>
+      </c>
+      <c r="H92">
+        <v>0.04545653446433175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2246285181490897</v>
+        <v>0.2648588917903214</v>
       </c>
       <c r="C93">
-        <v>0.3096850487295922</v>
+        <v>-0.2611211137853582</v>
       </c>
       <c r="D93">
-        <v>-0.006483248726174406</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0004288772125923748</v>
+      </c>
+      <c r="E93">
+        <v>-0.004586092684901499</v>
+      </c>
+      <c r="F93">
+        <v>-0.01577867590628455</v>
+      </c>
+      <c r="G93">
+        <v>-0.008560962963610728</v>
+      </c>
+      <c r="H93">
+        <v>-0.02429315120515592</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3938369620184302</v>
+        <v>0.3357859287808771</v>
       </c>
       <c r="C94">
-        <v>-0.2173021522758815</v>
+        <v>0.2646172508354112</v>
       </c>
       <c r="D94">
-        <v>0.4504832619979062</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4298117830577679</v>
+      </c>
+      <c r="E94">
+        <v>-0.09167744958395371</v>
+      </c>
+      <c r="F94">
+        <v>-0.009183469200648409</v>
+      </c>
+      <c r="G94">
+        <v>0.4113717047635238</v>
+      </c>
+      <c r="H94">
+        <v>-0.522288413497202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07549117466836519</v>
+        <v>0.06652001631894155</v>
       </c>
       <c r="C95">
-        <v>-0.06240635591620244</v>
+        <v>0.06727076538791699</v>
       </c>
       <c r="D95">
-        <v>-0.09293467694417515</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.07346756438503796</v>
+      </c>
+      <c r="E95">
+        <v>-0.03228299282343996</v>
+      </c>
+      <c r="F95">
+        <v>0.9035081412556351</v>
+      </c>
+      <c r="G95">
+        <v>-0.1673813146442038</v>
+      </c>
+      <c r="H95">
+        <v>-0.2022026774530444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1696840708920437</v>
+        <v>0.1615614775421862</v>
       </c>
       <c r="C98">
-        <v>-0.0273902943492955</v>
+        <v>0.06823728082443759</v>
       </c>
       <c r="D98">
-        <v>-0.1807290754714492</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1248523470246415</v>
+      </c>
+      <c r="E98">
+        <v>0.3147196046782972</v>
+      </c>
+      <c r="F98">
+        <v>-0.03842255457515721</v>
+      </c>
+      <c r="G98">
+        <v>-0.05510726596427685</v>
+      </c>
+      <c r="H98">
+        <v>0.01848510796777304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003539631470815304</v>
+        <v>0.004818747829512674</v>
       </c>
       <c r="C101">
-        <v>-0.01589812973285511</v>
+        <v>0.02182453651639162</v>
       </c>
       <c r="D101">
-        <v>-0.06992078095916908</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0885085994122012</v>
+      </c>
+      <c r="E101">
+        <v>-0.02904604947885436</v>
+      </c>
+      <c r="F101">
+        <v>-0.0134087081996125</v>
+      </c>
+      <c r="G101">
+        <v>0.001114677609364986</v>
+      </c>
+      <c r="H101">
+        <v>-0.00452332555229776</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.12693801727323</v>
+        <v>0.1043054953122034</v>
       </c>
       <c r="C102">
-        <v>-0.1148061834737809</v>
+        <v>0.1206531609129464</v>
       </c>
       <c r="D102">
-        <v>0.04801686430655507</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06506007626704507</v>
+      </c>
+      <c r="E102">
+        <v>-0.02497123435527653</v>
+      </c>
+      <c r="F102">
+        <v>0.02518793750933358</v>
+      </c>
+      <c r="G102">
+        <v>-0.0243890945968915</v>
+      </c>
+      <c r="H102">
+        <v>0.08976330317779392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
